--- a/Assignment 3 Mobile Testing/ScenarioTestCase_Reza.xlsx
+++ b/Assignment 3 Mobile Testing/ScenarioTestCase_Reza.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Indraw_Permata/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095093\Documents\GitHub\AssignmentKatalonReza\Assignment 3 Mobile Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080969A-6D06-1640-B038-F675146D0A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>Created By</t>
   </si>
@@ -84,12 +83,6 @@
   </si>
   <si>
     <t>Passed / Failed / Not executed</t>
-  </si>
-  <si>
-    <t>Indrawan Nirmala</t>
-  </si>
-  <si>
-    <t>23 Mey 2022</t>
   </si>
   <si>
     <t>ECOM_001</t>
@@ -295,11 +288,20 @@
 Nike Magista Obra II Club TF
 Hybrid Stroller Cabi Sport Rosse Gold </t>
   </si>
+  <si>
+    <t>Reza Yusuf Maulana</t>
+  </si>
+  <si>
+    <t>Reza Ysuuf maulana</t>
+  </si>
+  <si>
+    <t>7 Juli 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -566,27 +568,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -600,45 +641,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -855,46 +857,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="38" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="9.1640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="4" customWidth="1"/>
     <col min="14" max="28" width="8" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="14.5" style="4"/>
+    <col min="29" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="19"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -947,22 +949,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="22"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1015,15 +1017,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="44" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1061,7 +1063,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="19"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11">
         <v>0</v>
@@ -1130,10 +1132,10 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1167,25 +1169,25 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="22"/>
+      <c r="C9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="29"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="33" t="s">
-        <v>30</v>
+      <c r="G9" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="3"/>
@@ -1209,17 +1211,17 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="22"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="29"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="3"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1241,17 +1243,17 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="30"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="43"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="3"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1272,20 +1274,20 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="22"/>
+    <row r="12" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="29"/>
       <c r="F12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="G12" s="22"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="3"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1307,17 +1309,17 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="32"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="3"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1339,23 +1341,23 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="22"/>
+      <c r="A14" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="29"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="33" t="s">
-        <v>31</v>
+      <c r="G14" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="6"/>
@@ -1379,17 +1381,17 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="29"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1411,17 +1413,17 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="30"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="43"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1442,18 +1444,18 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="22"/>
+    <row r="17" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="29"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="6"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1475,17 +1477,17 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="32"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="30"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1507,25 +1509,25 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="22"/>
+      <c r="A19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="29"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="39" t="s">
-        <v>32</v>
+      <c r="G19" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="23" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="3"/>
@@ -1549,17 +1551,17 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="22"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="29"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="40"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1581,17 +1583,17 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="22"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="29"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="40"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1613,17 +1615,17 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="22"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="29"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="40"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1645,17 +1647,17 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="22"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="29"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="40"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1677,23 +1679,23 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="22"/>
+      <c r="A24" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="29"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="39" t="s">
-        <v>33</v>
+      <c r="G24" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="23" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="3"/>
@@ -1717,17 +1719,17 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="22"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="29"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="40"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1749,17 +1751,17 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="22"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="29"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="40"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1781,17 +1783,17 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="22"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="29"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="40"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1813,17 +1815,17 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="32"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="30"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="40"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1845,25 +1847,25 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="C29" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="29"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="39" t="s">
-        <v>34</v>
+      <c r="G29" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="23" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="3"/>
@@ -1887,17 +1889,17 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="22"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="29"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="40"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="40"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1919,17 +1921,17 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="22"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="29"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="40"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="40"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1951,17 +1953,17 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="22"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="29"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="40"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="40"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1983,17 +1985,17 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="22"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="29"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="40"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2015,23 +2017,23 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="22"/>
+      <c r="A34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="29"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="23" t="s">
-        <v>54</v>
+      <c r="G34" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="18" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="3"/>
@@ -2055,17 +2057,17 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="22"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="29"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="24"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2086,20 +2088,20 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="22"/>
+    <row r="36" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="29"/>
       <c r="F36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="G36" s="19"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2121,17 +2123,17 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="25"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="24"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2153,19 +2155,19 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="21"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="25"/>
       <c r="F38" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="G38" s="19"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2187,17 +2189,17 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="21"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="25"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="19"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2219,22 +2221,22 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>29</v>
+      <c r="A40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="21"/>
+        <v>79</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="25"/>
       <c r="F40" s="1"/>
       <c r="G40" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="20" t="s">
@@ -2261,13 +2263,13 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="21"/>
+      <c r="D41" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="25"/>
       <c r="F41" s="1"/>
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
@@ -2293,13 +2295,13 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="21"/>
+      <c r="D42" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="25"/>
       <c r="F42" s="1"/>
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
@@ -2325,15 +2327,15 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="21"/>
+      <c r="D43" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="25"/>
       <c r="F43" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="1"/>
@@ -2359,13 +2361,13 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="20"/>
-      <c r="D44" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="21"/>
+      <c r="D44" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="25"/>
       <c r="F44" s="1"/>
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
@@ -2391,13 +2393,13 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="21"/>
+      <c r="D45" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="25"/>
       <c r="F45" s="1"/>
       <c r="G45" s="20"/>
       <c r="H45" s="1"/>
@@ -2423,20 +2425,20 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="18"/>
+      <c r="A46" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="26"/>
       <c r="C46" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="21"/>
+        <v>80</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="25"/>
       <c r="F46" s="2"/>
       <c r="G46" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="20" t="s">
@@ -2463,13 +2465,13 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="21"/>
+      <c r="D47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="25"/>
       <c r="F47" s="2"/>
       <c r="G47" s="20"/>
       <c r="H47" s="2"/>
@@ -2495,13 +2497,13 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="21"/>
+      <c r="D48" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="25"/>
       <c r="F48" s="2"/>
       <c r="G48" s="20"/>
       <c r="H48" s="2"/>
@@ -2527,13 +2529,13 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="21"/>
+      <c r="D49" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="25"/>
       <c r="F49" s="2"/>
       <c r="G49" s="20"/>
       <c r="H49" s="2"/>
@@ -2559,13 +2561,13 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="21"/>
+      <c r="D50" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="25"/>
       <c r="F50" s="2"/>
       <c r="G50" s="20"/>
       <c r="H50" s="2"/>
@@ -2591,13 +2593,13 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="21"/>
+      <c r="D51" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="25"/>
       <c r="F51" s="2"/>
       <c r="G51" s="20"/>
       <c r="H51" s="2"/>
@@ -2623,13 +2625,13 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="21"/>
+      <c r="D52" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="25"/>
       <c r="F52" s="2"/>
       <c r="G52" s="20"/>
       <c r="H52" s="2"/>
@@ -2655,13 +2657,13 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="21"/>
+      <c r="D53" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="25"/>
       <c r="F53" s="2"/>
       <c r="G53" s="20"/>
       <c r="H53" s="2"/>
@@ -8628,6 +8630,80 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B40:B53"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="I34:I39"/>
     <mergeCell ref="I40:I45"/>
     <mergeCell ref="I46:I53"/>
@@ -8644,80 +8720,6 @@
     <mergeCell ref="I19:I23"/>
     <mergeCell ref="I24:I28"/>
     <mergeCell ref="I29:I33"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B40:B53"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assignment 3 Mobile Testing/ScenarioTestCase_Reza.xlsx
+++ b/Assignment 3 Mobile Testing/ScenarioTestCase_Reza.xlsx
@@ -202,16 +202,6 @@
     <t>6. Cek barang yang muncul</t>
   </si>
   <si>
-    <t>Nama : Indrawan
-Email : indrawan@test.com
-Phone Number : 081379310489
-alamat : Jl. Buntu no 99
-Nama : Nirmala
-Email : nirmala@test.com
-Phone Number : 085721576989
-alamat : Jl. Panjang no 89</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Electronics
  Home</t>
   </si>
@@ -296,6 +286,16 @@
   </si>
   <si>
     <t>7 Juli 2022</t>
+  </si>
+  <si>
+    <t>Nama :reza
+Email : reza@bfi.co.id
+Phone Number : 082251292745
+alamat : Jl. Buntu no 99
+Nama : Maulana
+Email : Maulana@bfi.co.id
+Phone Number : 082251292745
+alamat : Jl. Panjang no 89</t>
   </si>
 </sst>
 </file>
@@ -568,42 +568,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -617,31 +640,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -883,20 +883,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -949,22 +949,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="22"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="19"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1017,15 +1017,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1063,7 +1063,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11">
         <v>0</v>
@@ -1122,7 +1122,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -1132,10 +1132,10 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1169,25 +1169,25 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="3"/>
@@ -1211,17 +1211,17 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="25" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="3"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1243,17 +1243,17 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="42" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="3"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1275,19 +1275,19 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="25" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="22"/>
+        <v>84</v>
+      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="3"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1309,17 +1309,17 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="25" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="3"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1341,23 +1341,23 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="27" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="6"/>
@@ -1381,17 +1381,17 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="25" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1413,17 +1413,17 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="42" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1445,17 +1445,17 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="25" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="6"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1477,17 +1477,17 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1509,25 +1509,25 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="36" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="3"/>
@@ -1551,17 +1551,17 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1583,17 +1583,17 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="24"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1615,17 +1615,17 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1647,17 +1647,17 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1679,23 +1679,23 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="25" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="36" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="3"/>
@@ -1719,17 +1719,17 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="24"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1751,17 +1751,17 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1783,17 +1783,17 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1815,17 +1815,17 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="24"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1847,25 +1847,25 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="36" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="3"/>
@@ -1889,17 +1889,17 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="24"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1921,17 +1921,17 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="24"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1953,17 +1953,17 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="37"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="24"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1985,17 +1985,17 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="24"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="24"/>
+      <c r="I33" s="37"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2017,23 +2017,23 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="21" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="21" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="3"/>
@@ -2057,17 +2057,17 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="25" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="19"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2089,19 +2089,19 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="25" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="G36" s="22"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="19"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2123,17 +2123,17 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="25" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="19"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2155,19 +2155,19 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="25" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="25"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="G38" s="22"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2189,17 +2189,17 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="25" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="19"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="19"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2221,25 +2221,25 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="25" t="s">
+      <c r="C40" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="20" t="s">
-        <v>61</v>
+      <c r="G40" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="44" t="s">
         <v>7</v>
       </c>
       <c r="J40" s="3"/>
@@ -2263,17 +2263,17 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="25"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="20"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="20"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2295,17 +2295,17 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="25"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="20"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="20"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2327,19 +2327,19 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="25"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="20"/>
       <c r="F43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="G43" s="44"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="44"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2361,17 +2361,17 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="25"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="20"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="20"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2393,17 +2393,17 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="25"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="20"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="20"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="20"/>
+      <c r="I45" s="44"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2425,23 +2425,23 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="25" t="s">
+      <c r="A46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="25"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="20" t="s">
-        <v>62</v>
+      <c r="G46" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="44" t="s">
         <v>7</v>
       </c>
       <c r="J46" s="3"/>
@@ -2465,17 +2465,17 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="25"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="20"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="20"/>
+      <c r="G47" s="44"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="44"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2497,17 +2497,17 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="25"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="20"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="20"/>
+      <c r="G48" s="44"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="44"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2529,17 +2529,17 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="25"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="20"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="20"/>
+      <c r="G49" s="44"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="20"/>
+      <c r="I49" s="44"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2561,17 +2561,17 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="25"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="20"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="20"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="44"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2593,17 +2593,17 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="25"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="20"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="20"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2625,17 +2625,17 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="25"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="20"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="20"/>
+      <c r="G52" s="44"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="44"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2657,17 +2657,17 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="25"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="20"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="44"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="44"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -8630,16 +8630,70 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I34:I39"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="G46:G53"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B40:B53"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
@@ -8656,70 +8710,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B40:B53"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I34:I39"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G39"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="G46:G53"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C34:C39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assignment 3 Mobile Testing/ScenarioTestCase_Reza.xlsx
+++ b/Assignment 3 Mobile Testing/ScenarioTestCase_Reza.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095093\Documents\GitHub\AssignmentKatalonReza\Assignment 3 Mobile Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezay\Documents\project Amazon\react-portfolio-master\AssignmentKatalonReza\Assignment 3 Mobile Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214FE26-EEAD-4F94-88E8-09722C230436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4485"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>Created By</t>
   </si>
@@ -85,25 +76,7 @@
     <t>Passed / Failed / Not executed</t>
   </si>
   <si>
-    <t>ECOM_001</t>
-  </si>
-  <si>
-    <t>ECOM_002</t>
-  </si>
-  <si>
     <t>Cek Profile</t>
-  </si>
-  <si>
-    <t>ECOM_003</t>
-  </si>
-  <si>
-    <t>ECOM_004</t>
-  </si>
-  <si>
-    <t>ECOM_006</t>
-  </si>
-  <si>
-    <t>ECOM_005</t>
   </si>
   <si>
     <t>HELP</t>
@@ -115,22 +88,7 @@
     <t xml:space="preserve">Checkout </t>
   </si>
   <si>
-    <t>Pelanggan bisa mengubah profile.</t>
-  </si>
-  <si>
-    <t>Pelanggan bisa mengecek barang apa saja yang telah dibeli.</t>
-  </si>
-  <si>
-    <t>Pelanggan bisa cek tata cara order, pembayaran, sampai dengan informasi pengiriman.</t>
-  </si>
-  <si>
     <t>Pelanggan bisa cek profile perusahaan dan detail kontak perusahaan.</t>
-  </si>
-  <si>
-    <t>Pelanggan bisa menampilkan daftar barang berdasarkan Kategori Elektronik &amp; Gadget</t>
-  </si>
-  <si>
-    <t>ECOM_007</t>
   </si>
   <si>
     <t>1. Open Apps</t>
@@ -142,16 +100,7 @@
     <t>3. Tap tombol EDIT</t>
   </si>
   <si>
-    <t>4. Input Name, email, phone number, dan alamat</t>
-  </si>
-  <si>
-    <t>5. verify nama, email, phone number, dan alamat</t>
-  </si>
-  <si>
     <t>3. Tap sub menu Order History</t>
-  </si>
-  <si>
-    <t>4. Cek Halaman Order History</t>
   </si>
   <si>
     <t>5. Close Apps</t>
@@ -178,28 +127,7 @@
     <t>2. Tap Menu Category</t>
   </si>
   <si>
-    <t>3. Swipe ke halaman bawah</t>
-  </si>
-  <si>
     <t>4. Tap Sub Menu Electronics &amp; Gadgets / Home &amp; Furniture</t>
-  </si>
-  <si>
-    <t>5. Cek daftar barang yang ditampilkan</t>
-  </si>
-  <si>
-    <t>Pelanggan bisa melakukan pencarian Kategory dan Barang berdasarkan kata kunci tertentu</t>
-  </si>
-  <si>
-    <t>3. Masukkan kata kunci untuk pencarian kategory</t>
-  </si>
-  <si>
-    <t>4. Tap Kategory yang muncul</t>
-  </si>
-  <si>
-    <t>5. Masukkan kata kunci untuk pencarian barang</t>
-  </si>
-  <si>
-    <t>6. Cek barang yang muncul</t>
   </si>
   <si>
     <t xml:space="preserve"> Electronics
@@ -210,67 +138,7 @@
 Robot Vacuum</t>
   </si>
   <si>
-    <t>ECOM_008</t>
-  </si>
-  <si>
-    <t>Pelanggan bisa melakukan checkout produk</t>
-  </si>
-  <si>
-    <t>Pelanggan bisa melakukan checkout order produk</t>
-  </si>
-  <si>
-    <t>2. Masuk ke halaman Cart</t>
-  </si>
-  <si>
-    <t>3. Cek halaman cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. pilih barang </t>
-  </si>
-  <si>
-    <t>5. masukkan barang ke cart</t>
-  </si>
-  <si>
-    <t>6. cek barang yang sudah masuk ke cart</t>
-  </si>
-  <si>
     <t>4. Tap tombol Ckeckout</t>
-  </si>
-  <si>
-    <t>5. pilih shipping</t>
-  </si>
-  <si>
-    <t>6. tap tombol proses checkout</t>
-  </si>
-  <si>
-    <t>7. tap tombol YES di popup proses checkout</t>
-  </si>
-  <si>
-    <t>8. tap tombol OK di popup sukses checkout.</t>
-  </si>
-  <si>
-    <t>skenario untuk mengubah profile.</t>
-  </si>
-  <si>
-    <t>skenario untuk mengecek barang apa saja yang telah dibeli.</t>
-  </si>
-  <si>
-    <t>skenario untuk cek tata cara order, pembayaran, sampai dengan informasi pengiriman.</t>
-  </si>
-  <si>
-    <t>skenario untuk cek profile perusahaan dan detail kontak perusahaan.</t>
-  </si>
-  <si>
-    <t>skenario untuk menampilkan daftar barang berdasarkan Kategori Elektronik &amp; Gadget</t>
-  </si>
-  <si>
-    <t>skenario untuk melakukan pencarian Kategory dan Barang berdasarkan kata kunci tertentu</t>
-  </si>
-  <si>
-    <t>skenario untuk melakukan checkout produk</t>
-  </si>
-  <si>
-    <t>skenario untuk melakukan checkout order produk</t>
   </si>
   <si>
     <t xml:space="preserve">Samsung Galaxy S10 - Black
@@ -297,12 +165,148 @@
 Phone Number : 082251292745
 alamat : Jl. Panjang no 89</t>
   </si>
+  <si>
+    <t>ECOMMERCE-TC01</t>
+  </si>
+  <si>
+    <t>ECOMMERCE-TC02</t>
+  </si>
+  <si>
+    <t>ECOMMERCE-TC03</t>
+  </si>
+  <si>
+    <t>ECOMMERCE-TC04</t>
+  </si>
+  <si>
+    <t>ECOMMERCE-TC05</t>
+  </si>
+  <si>
+    <t>ECOMMERCE-TC06</t>
+  </si>
+  <si>
+    <t>ECOMMERCE-TC07</t>
+  </si>
+  <si>
+    <t>ECOMMERCE-TC08</t>
+  </si>
+  <si>
+    <t>scenario for changing profile.</t>
+  </si>
+  <si>
+    <t>4. Input Name, email, phone number, and address</t>
+  </si>
+  <si>
+    <t>5. verify name, email, phone number, and address</t>
+  </si>
+  <si>
+    <t>Customers can change profiles.</t>
+  </si>
+  <si>
+    <t>scenarios to check what items have been purchased.</t>
+  </si>
+  <si>
+    <t>4. Check Order History Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Customers can check what items have been purchased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Customers can check the order procedure, payment, to delivery information.</t>
+  </si>
+  <si>
+    <t>Customers can check the company profile and company contact details.</t>
+  </si>
+  <si>
+    <t>Customers can display a list of goods by Category Electronics &amp; Gadgets</t>
+  </si>
+  <si>
+    <t>Customers can search for Categories and Items based on certain keywords</t>
+  </si>
+  <si>
+    <t>Customers can checkout products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customers can checkout products
+</t>
+  </si>
+  <si>
+    <t>Customers can checkout product orders</t>
+  </si>
+  <si>
+    <t>scenarios to check order procedures, payments, to delivery information.</t>
+  </si>
+  <si>
+    <t>scenario to check company profile and company contact details.</t>
+  </si>
+  <si>
+    <t>scenarios to display a list of items by Category Electronics &amp; Gadgets</t>
+  </si>
+  <si>
+    <t>Scenarios to perform Category and Item searches based on certain keywords</t>
+  </si>
+  <si>
+    <t>Scenario for Product Checkout</t>
+  </si>
+  <si>
+    <t>Scenarios to checkout product orders</t>
+  </si>
+  <si>
+    <t>3. Swipe to the bottom page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5. Check the list of items displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3. Enter keywords for category search</t>
+  </si>
+  <si>
+    <t>4. Tap the Category that appears</t>
+  </si>
+  <si>
+    <t>5. Enter keywords for item search</t>
+  </si>
+  <si>
+    <t>6. Check the items that appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Go to Cart . Page
+</t>
+  </si>
+  <si>
+    <t>3. Check the cart page</t>
+  </si>
+  <si>
+    <t>4. Choose Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5. add items to cart</t>
+  </si>
+  <si>
+    <t>6. Check the items that have entered the cart</t>
+  </si>
+  <si>
+    <t>5. choose shipping</t>
+  </si>
+  <si>
+    <t>6. tap process button checkout</t>
+  </si>
+  <si>
+    <t>7. Tap the YES button in the checkout process popup</t>
+  </si>
+  <si>
+    <t>8. Tap the OK button in the successful checkout popup.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -392,8 +396,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,8 +433,20 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -513,11 +552,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,9 +597,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -568,10 +617,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -581,20 +636,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,39 +690,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,46 +952,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="4" customWidth="1"/>
     <col min="3" max="3" width="38" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="4" customWidth="1"/>
     <col min="14" max="28" width="8" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="14.42578125" style="4"/>
+    <col min="29" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="19"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -918,7 +1013,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -948,23 +1043,23 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="18"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -986,7 +1081,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1016,16 +1111,16 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1058,17 +1153,19 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
+      <c r="E6" s="18"/>
+      <c r="F6" s="58">
+        <v>8</v>
+      </c>
+      <c r="G6" s="59">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
@@ -1092,7 +1189,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1103,8 +1200,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1122,35 +1219,35 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1168,26 +1265,26 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="C9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="28"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="27" t="s">
-        <v>28</v>
+      <c r="G9" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="3"/>
@@ -1210,18 +1307,18 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="24"/>
+    <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="28"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="3"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1242,18 +1339,18 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="32"/>
+    <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="42"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="3"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1274,20 +1371,22 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="24"/>
+    <row r="12" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="28"/>
       <c r="F12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="45"/>
       <c r="J12" s="3"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1308,18 +1407,18 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="26"/>
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="29"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="3"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1340,24 +1439,26 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="24"/>
+    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="28"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="27" t="s">
+      <c r="G14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="6"/>
@@ -1380,18 +1481,18 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="24"/>
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="28"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1412,18 +1513,18 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="32"/>
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="42"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1444,18 +1545,18 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="24"/>
+    <row r="17" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="28"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="6"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1476,18 +1577,18 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="26"/>
+    <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="29"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1508,26 +1609,28 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="24"/>
+    <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="28"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="36" t="s">
+      <c r="G19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="46" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="3"/>
@@ -1550,18 +1653,18 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="24"/>
+    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="28"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="37"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1582,18 +1685,18 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="24"/>
+    <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="28"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="37"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1614,18 +1717,18 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="24"/>
+    <row r="22" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="28"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="37"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1646,18 +1749,18 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="37"/>
+    <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1678,24 +1781,26 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="36" t="s">
+      <c r="H24" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="46" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="3"/>
@@ -1718,18 +1823,18 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="24"/>
+    <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="28"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="37"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1750,18 +1855,18 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="24"/>
+    <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="28"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="37"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1782,18 +1887,18 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="24"/>
+    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="28"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="37"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1814,18 +1919,18 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="26"/>
+    <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="29"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="37"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1846,26 +1951,28 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="24"/>
+    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="28"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="36" t="s">
+      <c r="G29" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="46" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="3"/>
@@ -1888,18 +1995,18 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="24"/>
+    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="28"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="37"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1920,18 +2027,18 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="24"/>
+    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="28"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="37"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1952,18 +2059,18 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="24"/>
+    <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="28"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="37"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1984,18 +2091,18 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="24"/>
+    <row r="33" spans="1:28" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="28"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="37"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2016,24 +2123,26 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="21" t="s">
+      <c r="G34" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="48" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="3"/>
@@ -2056,18 +2165,18 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="24"/>
+    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="49"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2088,20 +2197,20 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="24"/>
+    <row r="36" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="28"/>
       <c r="F36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="49"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2122,18 +2231,18 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="22"/>
+    <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="49"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2154,20 +2263,20 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="22"/>
+    <row r="38" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="49"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2188,18 +2297,18 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="22"/>
+    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="49"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2220,26 +2329,28 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="20"/>
+    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="21"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="44" t="s">
+      <c r="G40" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="50" t="s">
         <v>7</v>
       </c>
       <c r="J40" s="3"/>
@@ -2262,18 +2373,18 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="20"/>
+    <row r="41" spans="1:28" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="21"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="44"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="50"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2294,18 +2405,18 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="20"/>
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="21"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="44"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="50"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2326,20 +2437,20 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="20"/>
+    <row r="43" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="21"/>
       <c r="F43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="44"/>
+        <v>39</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="50"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2360,18 +2471,18 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="20"/>
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="21"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="44"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="50"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2392,18 +2503,18 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="20"/>
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="21"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="44"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="50"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2424,24 +2535,26 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="20"/>
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="21"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="44" t="s">
+      <c r="G46" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="50" t="s">
         <v>7</v>
       </c>
       <c r="J46" s="3"/>
@@ -2464,18 +2577,18 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="20"/>
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="21"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="44"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="50"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2496,18 +2609,18 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="20"/>
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="21"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="44"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="50"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2528,18 +2641,18 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="20"/>
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="21"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="44"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="50"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2560,18 +2673,18 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="20"/>
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="21"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="44"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="50"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2592,18 +2705,18 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="20"/>
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="21"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="44"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="50"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2624,18 +2737,18 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="20"/>
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="21"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="44"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="50"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2656,18 +2769,18 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="20"/>
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="21"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="44"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="50"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2688,7 +2801,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2718,7 +2831,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2748,7 +2861,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2778,7 +2891,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2808,7 +2921,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2838,7 +2951,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2868,7 +2981,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2898,7 +3011,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2928,7 +3041,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2958,7 +3071,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2988,7 +3101,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3018,7 +3131,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3048,7 +3161,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3078,7 +3191,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3108,7 +3221,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3138,7 +3251,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3168,7 +3281,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3198,7 +3311,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3228,7 +3341,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3258,7 +3371,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3288,7 +3401,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3318,7 +3431,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3348,7 +3461,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3378,7 +3491,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3408,7 +3521,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3438,7 +3551,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3468,7 +3581,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3498,7 +3611,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3528,7 +3641,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3558,7 +3671,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3588,7 +3701,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3618,7 +3731,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3648,7 +3761,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3678,7 +3791,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3708,7 +3821,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3738,7 +3851,7 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3768,7 +3881,7 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3798,7 +3911,7 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3828,7 +3941,7 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3858,7 +3971,7 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3888,7 +4001,7 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3918,7 +4031,7 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3948,7 +4061,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3978,7 +4091,7 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
     </row>
-    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4008,7 +4121,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4038,7 +4151,7 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4068,7 +4181,7 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4098,7 +4211,7 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4128,7 +4241,7 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4158,7 +4271,7 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4188,7 +4301,7 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4218,7 +4331,7 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4248,7 +4361,7 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4278,7 +4391,7 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4308,7 +4421,7 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4338,7 +4451,7 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4368,7 +4481,7 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4398,7 +4511,7 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4428,7 +4541,7 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4458,7 +4571,7 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4488,7 +4601,7 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4518,7 +4631,7 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4548,7 +4661,7 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4578,7 +4691,7 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4608,7 +4721,7 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4638,7 +4751,7 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4668,7 +4781,7 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4698,7 +4811,7 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4728,7 +4841,7 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4758,7 +4871,7 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4788,7 +4901,7 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4818,7 +4931,7 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4848,7 +4961,7 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4878,7 +4991,7 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4908,7 +5021,7 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4938,7 +5051,7 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4968,7 +5081,7 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4998,7 +5111,7 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5028,7 +5141,7 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5058,7 +5171,7 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5088,7 +5201,7 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5118,7 +5231,7 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5148,7 +5261,7 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5178,7 +5291,7 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5208,7 +5321,7 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5238,7 +5351,7 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5268,7 +5381,7 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5298,7 +5411,7 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5328,7 +5441,7 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5358,7 +5471,7 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5388,7 +5501,7 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5418,7 +5531,7 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5448,7 +5561,7 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5478,7 +5591,7 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5508,7 +5621,7 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5538,7 +5651,7 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5568,7 +5681,7 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5598,7 +5711,7 @@
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5628,7 +5741,7 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5658,7 +5771,7 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5688,7 +5801,7 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5718,7 +5831,7 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5748,7 +5861,7 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5778,7 +5891,7 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5808,7 +5921,7 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5838,7 +5951,7 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5868,7 +5981,7 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5898,7 +6011,7 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5928,7 +6041,7 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5958,7 +6071,7 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5988,7 +6101,7 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6018,7 +6131,7 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6048,7 +6161,7 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6078,7 +6191,7 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6108,7 +6221,7 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6138,7 +6251,7 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6168,7 +6281,7 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6198,7 +6311,7 @@
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6228,7 +6341,7 @@
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
     </row>
-    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6258,7 +6371,7 @@
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6288,7 +6401,7 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6318,7 +6431,7 @@
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6348,7 +6461,7 @@
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -6378,7 +6491,7 @@
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6408,7 +6521,7 @@
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6438,7 +6551,7 @@
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6468,7 +6581,7 @@
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6498,7 +6611,7 @@
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6528,7 +6641,7 @@
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6558,7 +6671,7 @@
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6588,7 +6701,7 @@
       <c r="AA183" s="3"/>
       <c r="AB183" s="3"/>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6618,7 +6731,7 @@
       <c r="AA184" s="3"/>
       <c r="AB184" s="3"/>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6648,7 +6761,7 @@
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6678,7 +6791,7 @@
       <c r="AA186" s="3"/>
       <c r="AB186" s="3"/>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6708,7 +6821,7 @@
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6738,7 +6851,7 @@
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6768,7 +6881,7 @@
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6798,7 +6911,7 @@
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6828,7 +6941,7 @@
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
     </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6858,7 +6971,7 @@
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6888,7 +7001,7 @@
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6918,7 +7031,7 @@
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6948,7 +7061,7 @@
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6978,7 +7091,7 @@
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -7008,7 +7121,7 @@
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -7038,7 +7151,7 @@
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -7068,7 +7181,7 @@
       <c r="AA199" s="3"/>
       <c r="AB199" s="3"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -7098,7 +7211,7 @@
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -7128,7 +7241,7 @@
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -7158,7 +7271,7 @@
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -7188,7 +7301,7 @@
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -7218,7 +7331,7 @@
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -7248,7 +7361,7 @@
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -7278,7 +7391,7 @@
       <c r="AA206" s="3"/>
       <c r="AB206" s="3"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -7308,7 +7421,7 @@
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -7338,7 +7451,7 @@
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -7368,7 +7481,7 @@
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -7398,7 +7511,7 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -7428,7 +7541,7 @@
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -7458,7 +7571,7 @@
       <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -7488,7 +7601,7 @@
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -7518,7 +7631,7 @@
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -7548,7 +7661,7 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -7578,7 +7691,7 @@
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -7608,7 +7721,7 @@
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
     </row>
-    <row r="218" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -7638,7 +7751,7 @@
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
     </row>
-    <row r="219" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -7668,7 +7781,7 @@
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
     </row>
-    <row r="220" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -7698,7 +7811,7 @@
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
     </row>
-    <row r="221" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -7728,7 +7841,7 @@
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
     </row>
-    <row r="222" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -7758,7 +7871,7 @@
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
     </row>
-    <row r="223" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -7788,7 +7901,7 @@
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
     </row>
-    <row r="224" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -7818,7 +7931,7 @@
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
     </row>
-    <row r="225" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -7848,823 +7961,831 @@
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
     </row>
-    <row r="226" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I34:I39"/>
-    <mergeCell ref="I40:I45"/>
-    <mergeCell ref="I46:I53"/>
-    <mergeCell ref="G34:G39"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="G46:G53"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B40:B53"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="D46:E46"/>
+  <mergeCells count="97">
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
@@ -8681,45 +8802,44 @@
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="B29:B39"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B40:B53"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I34:I39"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="I46:I53"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="G46:G53"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H46:H53"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
